--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:09:18+00:00</t>
+    <t>2024-04-10T09:46:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Yes/No/Unknown</t>
+    <t>Yes/No/Unknown Value Set</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:46:51+00:00</t>
+    <t>2024-04-10T12:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Standard value set for yes, no, and unknown responses.</t>
+    <t>Value set for yes, no, and unknown responses.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:05:41+00:00</t>
+    <t>2024-04-10T12:38:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:38:22+00:00</t>
+    <t>2024-04-10T12:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:47:47+00:00</t>
+    <t>2024-04-10T14:10:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:10:05+00:00</t>
+    <t>2024-04-10T14:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Yes_No_Unknown" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Yes_No_Unknown C" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:13:50+00:00</t>
+    <t>2024-04-11T10:33:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/CodeSystem/yes-no-unknown</t>
+    <t>https://dhis2.org/fhir/CodeSystem/yes-no-unknown-cs</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:33:02+00:00</t>
+    <t>2024-04-11T10:34:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:34:35+00:00</t>
+    <t>2024-04-11T13:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T13:02:26+00:00</t>
+    <t>2024-04-12T09:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T09:40:09+00:00</t>
+    <t>2024-04-12T11:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
